--- a/paper/ref/sheet 8.xlsx
+++ b/paper/ref/sheet 8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1555,11 +1555,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099486360"/>
-        <c:axId val="2099593304"/>
+        <c:axId val="2100850264"/>
+        <c:axId val="2103032088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099486360"/>
+        <c:axId val="2100850264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099593304"/>
+        <c:crossAx val="2103032088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1595,7 +1595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099593304"/>
+        <c:axId val="2103032088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099486360"/>
+        <c:crossAx val="2100850264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,11 +2046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122014504"/>
-        <c:axId val="-2121665640"/>
+        <c:axId val="2102412440"/>
+        <c:axId val="2103144776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122014504"/>
+        <c:axId val="2102412440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121665640"/>
+        <c:crossAx val="2103144776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121665640"/>
+        <c:axId val="2103144776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122014504"/>
+        <c:crossAx val="2102412440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,11 +2461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121989144"/>
-        <c:axId val="2099846280"/>
+        <c:axId val="-2120100664"/>
+        <c:axId val="-2119307016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121989144"/>
+        <c:axId val="-2120100664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099846280"/>
+        <c:crossAx val="-2119307016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2502,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099846280"/>
+        <c:axId val="-2119307016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121989144"/>
+        <c:crossAx val="-2120100664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,11 +2872,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112189624"/>
-        <c:axId val="2110078216"/>
+        <c:axId val="-2120085288"/>
+        <c:axId val="-2119624008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112189624"/>
+        <c:axId val="-2120085288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +2904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110078216"/>
+        <c:crossAx val="-2119624008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2912,7 +2912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110078216"/>
+        <c:axId val="-2119624008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112189624"/>
+        <c:crossAx val="-2120085288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3294,11 +3294,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2105241512"/>
-        <c:axId val="2099522248"/>
+        <c:axId val="-2119277096"/>
+        <c:axId val="-2120029544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105241512"/>
+        <c:axId val="-2119277096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099522248"/>
+        <c:crossAx val="-2120029544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3334,7 +3334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099522248"/>
+        <c:axId val="-2120029544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105241512"/>
+        <c:crossAx val="-2119277096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3680,11 +3680,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2104521224"/>
-        <c:axId val="2110269352"/>
+        <c:axId val="-2119502184"/>
+        <c:axId val="-2120212872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104521224"/>
+        <c:axId val="-2119502184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110269352"/>
+        <c:crossAx val="-2120212872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3720,7 +3720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110269352"/>
+        <c:axId val="-2120212872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104521224"/>
+        <c:crossAx val="-2119502184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4066,11 +4066,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138696072"/>
-        <c:axId val="2110218040"/>
+        <c:axId val="-2095327272"/>
+        <c:axId val="-2095321768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138696072"/>
+        <c:axId val="-2095327272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +4098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110218040"/>
+        <c:crossAx val="-2095321768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4106,7 +4106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110218040"/>
+        <c:axId val="-2095321768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +4136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138696072"/>
+        <c:crossAx val="-2095327272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,11 +4267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117519976"/>
-        <c:axId val="2100144568"/>
+        <c:axId val="-2095551096"/>
+        <c:axId val="-2095645640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117519976"/>
+        <c:axId val="-2095551096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -4301,13 +4301,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100144568"/>
+        <c:crossAx val="-2095645640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100144568"/>
+        <c:axId val="-2095645640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117519976"/>
+        <c:crossAx val="-2095551096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4727,11 +4727,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2099264040"/>
-        <c:axId val="2100269320"/>
+        <c:axId val="2102826888"/>
+        <c:axId val="2103363224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099264040"/>
+        <c:axId val="2102826888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4740,7 +4740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100269320"/>
+        <c:crossAx val="2103363224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4748,7 +4748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100269320"/>
+        <c:axId val="2103363224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,7 +4788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099264040"/>
+        <c:crossAx val="2102826888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4936,11 +4936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2112408280"/>
-        <c:axId val="2112411288"/>
+        <c:axId val="-2095219192"/>
+        <c:axId val="-2095523032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112408280"/>
+        <c:axId val="-2095219192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,7 +4949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112411288"/>
+        <c:crossAx val="-2095523032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4957,7 +4957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112411288"/>
+        <c:axId val="-2095523032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +4987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112408280"/>
+        <c:crossAx val="-2095219192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5166,11 +5166,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100111000"/>
-        <c:axId val="-2138897384"/>
+        <c:axId val="2101150760"/>
+        <c:axId val="2102900008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100111000"/>
+        <c:axId val="2101150760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,14 +5192,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138897384"/>
+        <c:crossAx val="2102900008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5207,7 +5206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138897384"/>
+        <c:axId val="2102900008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,14 +5229,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100111000"/>
+        <c:crossAx val="2101150760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5386,11 +5384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099379960"/>
-        <c:axId val="2099920408"/>
+        <c:axId val="2100664472"/>
+        <c:axId val="2102487128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099379960"/>
+        <c:axId val="2100664472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,7 +5416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099920408"/>
+        <c:crossAx val="2102487128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5426,7 +5424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099920408"/>
+        <c:axId val="2102487128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5456,7 +5454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099379960"/>
+        <c:crossAx val="2100664472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5527,7 +5525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5916,11 +5913,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112384936"/>
-        <c:axId val="2100012600"/>
+        <c:axId val="2102812168"/>
+        <c:axId val="2103259096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112384936"/>
+        <c:axId val="2102812168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5942,13 +5939,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100012600"/>
+        <c:crossAx val="2103259096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5956,7 +5952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100012600"/>
+        <c:axId val="2103259096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5979,14 +5975,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112384936"/>
+        <c:crossAx val="2102812168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6490,11 +6485,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138348584"/>
-        <c:axId val="2110320648"/>
+        <c:axId val="-2095092104"/>
+        <c:axId val="-2095086600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138348584"/>
+        <c:axId val="-2095092104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110320648"/>
+        <c:crossAx val="-2095086600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6529,7 +6524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110320648"/>
+        <c:axId val="-2095086600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138348584"/>
+        <c:crossAx val="-2095092104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6642,7 +6637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7076,11 +7070,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138822488"/>
-        <c:axId val="2098260104"/>
+        <c:axId val="2055138088"/>
+        <c:axId val="-2095397832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138822488"/>
+        <c:axId val="2055138088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7102,13 +7096,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098260104"/>
+        <c:crossAx val="-2095397832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7116,7 +7109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098260104"/>
+        <c:axId val="-2095397832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,14 +7132,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138822488"/>
+        <c:crossAx val="2055138088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7417,11 +7409,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2105346168"/>
-        <c:axId val="2099438408"/>
+        <c:axId val="-2095726488"/>
+        <c:axId val="2103235384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105346168"/>
+        <c:axId val="-2095726488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7430,7 +7422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099438408"/>
+        <c:crossAx val="2103235384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7438,7 +7430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099438408"/>
+        <c:axId val="2103235384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7461,14 +7453,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105346168"/>
+        <c:crossAx val="-2095726488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7525,7 +7516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7794,11 +7784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110009400"/>
-        <c:axId val="2105143432"/>
+        <c:axId val="-2095836792"/>
+        <c:axId val="2103255048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110009400"/>
+        <c:axId val="-2095836792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7808,7 +7798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105143432"/>
+        <c:crossAx val="2103255048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7816,7 +7806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105143432"/>
+        <c:axId val="2103255048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7827,7 +7817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110009400"/>
+        <c:crossAx val="-2095836792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7978,11 +7968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109756920"/>
-        <c:axId val="2109759928"/>
+        <c:axId val="-2095972824"/>
+        <c:axId val="2102692600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109756920"/>
+        <c:axId val="-2095972824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7992,7 +7982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109759928"/>
+        <c:crossAx val="2102692600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8000,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109759928"/>
+        <c:axId val="2102692600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8011,7 +8001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109756920"/>
+        <c:crossAx val="-2095972824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8152,11 +8142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099588472"/>
-        <c:axId val="2099945096"/>
+        <c:axId val="2102517112"/>
+        <c:axId val="-2095544952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099588472"/>
+        <c:axId val="2102517112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8166,7 +8156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099945096"/>
+        <c:crossAx val="-2095544952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8174,7 +8164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099945096"/>
+        <c:axId val="-2095544952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8185,7 +8175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099588472"/>
+        <c:crossAx val="2102517112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8398,11 +8388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109905528"/>
-        <c:axId val="2109908504"/>
+        <c:axId val="-2095586968"/>
+        <c:axId val="-2095739592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109905528"/>
+        <c:axId val="-2095586968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,7 +8401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109908504"/>
+        <c:crossAx val="-2095739592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8419,7 +8409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109908504"/>
+        <c:axId val="-2095739592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8442,14 +8432,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109905528"/>
+        <c:crossAx val="-2095586968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8525,7 +8514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8656,11 +8644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105210200"/>
-        <c:axId val="2100226472"/>
+        <c:axId val="2103169896"/>
+        <c:axId val="2103127960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105210200"/>
+        <c:axId val="2103169896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8669,7 +8657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100226472"/>
+        <c:crossAx val="2103127960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8677,7 +8665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100226472"/>
+        <c:axId val="2103127960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8700,14 +8688,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105210200"/>
+        <c:crossAx val="2103169896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8782,7 +8769,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8913,11 +8899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098382616"/>
-        <c:axId val="2099779960"/>
+        <c:axId val="2103948040"/>
+        <c:axId val="-2095573976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098382616"/>
+        <c:axId val="2103948040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8926,7 +8912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099779960"/>
+        <c:crossAx val="-2095573976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8934,7 +8920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099779960"/>
+        <c:axId val="-2095573976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8957,14 +8943,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098382616"/>
+        <c:crossAx val="2103948040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9127,11 +9112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098578008"/>
-        <c:axId val="-2138911992"/>
+        <c:axId val="-2095657432"/>
+        <c:axId val="2103402872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098578008"/>
+        <c:axId val="-2095657432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9159,7 +9144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138911992"/>
+        <c:crossAx val="2103402872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9167,7 +9152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138911992"/>
+        <c:axId val="2103402872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9197,7 +9182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098578008"/>
+        <c:crossAx val="-2095657432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9273,7 +9258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9404,11 +9388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100400520"/>
-        <c:axId val="2105511544"/>
+        <c:axId val="-2095497624"/>
+        <c:axId val="-2095396664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100400520"/>
+        <c:axId val="-2095497624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9417,7 +9401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105511544"/>
+        <c:crossAx val="-2095396664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9425,7 +9409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105511544"/>
+        <c:axId val="-2095396664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9448,14 +9432,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100400520"/>
+        <c:crossAx val="-2095497624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9526,7 +9509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9895,11 +9877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113472856"/>
-        <c:axId val="2113455160"/>
+        <c:axId val="-2095493656"/>
+        <c:axId val="2054165704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113472856"/>
+        <c:axId val="-2095493656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9921,14 +9903,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113455160"/>
+        <c:crossAx val="2054165704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9936,7 +9917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113455160"/>
+        <c:axId val="2054165704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,14 +9940,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113472856"/>
+        <c:crossAx val="-2095493656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10042,7 +10022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10128,11 +10107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2113375048"/>
-        <c:axId val="2113378056"/>
+        <c:axId val="2104354264"/>
+        <c:axId val="2102561032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113375048"/>
+        <c:axId val="2104354264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10141,7 +10120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113378056"/>
+        <c:crossAx val="2102561032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10149,7 +10128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113378056"/>
+        <c:axId val="2102561032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10172,14 +10151,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113375048"/>
+        <c:crossAx val="2104354264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10241,7 +10219,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10452,11 +10429,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2113325784"/>
-        <c:axId val="2113317256"/>
+        <c:axId val="-2095112056"/>
+        <c:axId val="-2095108936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113325784"/>
+        <c:axId val="-2095112056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10465,7 +10442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113317256"/>
+        <c:crossAx val="-2095108936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10473,7 +10450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113317256"/>
+        <c:axId val="-2095108936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10496,14 +10473,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113325784"/>
+        <c:crossAx val="-2095112056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11091,11 +11067,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2113231080"/>
-        <c:axId val="2113225448"/>
+        <c:axId val="2100413656"/>
+        <c:axId val="-2095230488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113231080"/>
+        <c:axId val="2100413656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11117,13 +11093,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113225448"/>
+        <c:crossAx val="-2095230488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11131,7 +11106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113225448"/>
+        <c:axId val="-2095230488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11154,14 +11129,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113231080"/>
+        <c:crossAx val="2100413656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11360,11 +11334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138462424"/>
-        <c:axId val="2099256712"/>
+        <c:axId val="2054210440"/>
+        <c:axId val="2103094408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138462424"/>
+        <c:axId val="2054210440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11392,7 +11366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099256712"/>
+        <c:crossAx val="2103094408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11400,7 +11374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099256712"/>
+        <c:axId val="2103094408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11430,7 +11404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138462424"/>
+        <c:crossAx val="2054210440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11637,11 +11611,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110340904"/>
-        <c:axId val="2110419896"/>
+        <c:axId val="2102452040"/>
+        <c:axId val="2102479176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110340904"/>
+        <c:axId val="2102452040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11650,7 +11624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110419896"/>
+        <c:crossAx val="2102479176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11658,7 +11632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110419896"/>
+        <c:axId val="2102479176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11688,7 +11662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110340904"/>
+        <c:crossAx val="2102452040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11894,11 +11868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2139000840"/>
-        <c:axId val="2099581880"/>
+        <c:axId val="2054281320"/>
+        <c:axId val="-2095809080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139000840"/>
+        <c:axId val="2054281320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11907,7 +11881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099581880"/>
+        <c:crossAx val="-2095809080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11915,7 +11889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099581880"/>
+        <c:axId val="-2095809080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11945,7 +11919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139000840"/>
+        <c:crossAx val="2054281320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12152,11 +12126,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138447016"/>
-        <c:axId val="-2138444040"/>
+        <c:axId val="2103978776"/>
+        <c:axId val="2104255848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138447016"/>
+        <c:axId val="2103978776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12165,7 +12139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138444040"/>
+        <c:crossAx val="2104255848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12173,7 +12147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138444040"/>
+        <c:axId val="2104255848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12203,7 +12177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138447016"/>
+        <c:crossAx val="2103978776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12426,11 +12400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099579368"/>
-        <c:axId val="2098789496"/>
+        <c:axId val="2104101720"/>
+        <c:axId val="-2095205688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099579368"/>
+        <c:axId val="2104101720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12439,7 +12413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098789496"/>
+        <c:crossAx val="-2095205688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12447,7 +12421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098789496"/>
+        <c:axId val="-2095205688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12477,7 +12451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099579368"/>
+        <c:crossAx val="2104101720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12782,11 +12756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131205944"/>
-        <c:axId val="-2131055048"/>
+        <c:axId val="-2095295864"/>
+        <c:axId val="-2095898824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131205944"/>
+        <c:axId val="-2095295864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12814,7 +12788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131055048"/>
+        <c:crossAx val="-2095898824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12822,7 +12796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131055048"/>
+        <c:axId val="-2095898824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12852,7 +12826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131205944"/>
+        <c:crossAx val="-2095295864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14296,8 +14270,8 @@
   </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="L86" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:L47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15883,6 +15857,10 @@
       <c r="D72" s="2">
         <f>H35/B2+G35/B14+M7</f>
         <v>37.42951139683651</v>
+      </c>
+      <c r="E72">
+        <f>C72/D72</f>
+        <v>2.9343013328052989</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>86</v>
@@ -15965,7 +15943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
